--- a/ponts marne 2/autocorr automatise/fourier/frequences.xlsx
+++ b/ponts marne 2/autocorr automatise/fourier/frequences.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7E97F4-34F5-4916-9241-42423F4CBE67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3CA5ED-7AAE-4E13-992C-2FF2DE7B9724}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,10 +368,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,6 +475,24 @@
       <c r="L2">
         <v>0.95</v>
       </c>
+      <c r="M2">
+        <v>2.12</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>2.12</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>2.12</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -513,6 +531,24 @@
       <c r="L3">
         <v>0.92</v>
       </c>
+      <c r="M3">
+        <v>2.13</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>2.13</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>2.13</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -551,6 +587,24 @@
       <c r="L4">
         <v>1.06</v>
       </c>
+      <c r="M4">
+        <v>2.77</v>
+      </c>
+      <c r="N4">
+        <v>0.7</v>
+      </c>
+      <c r="O4">
+        <v>2.79</v>
+      </c>
+      <c r="P4">
+        <v>0.7</v>
+      </c>
+      <c r="S4">
+        <v>2.79</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -589,6 +643,24 @@
       <c r="L5">
         <v>1.17</v>
       </c>
+      <c r="M5">
+        <v>2.93</v>
+      </c>
+      <c r="N5">
+        <v>1.5</v>
+      </c>
+      <c r="O5">
+        <v>2.95</v>
+      </c>
+      <c r="P5">
+        <v>1.5</v>
+      </c>
+      <c r="S5">
+        <v>2.95</v>
+      </c>
+      <c r="T5">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -610,7 +682,7 @@
         <v>1.2</v>
       </c>
       <c r="G6">
-        <v>5.32</v>
+        <v>6.41</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -626,6 +698,24 @@
       </c>
       <c r="L6">
         <v>1.92</v>
+      </c>
+      <c r="M6">
+        <v>5.37</v>
+      </c>
+      <c r="N6">
+        <v>1.4</v>
+      </c>
+      <c r="O6">
+        <v>5.37</v>
+      </c>
+      <c r="P6">
+        <v>1.4</v>
+      </c>
+      <c r="S6">
+        <v>5.37</v>
+      </c>
+      <c r="T6">
+        <v>1.8</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -648,10 +738,10 @@
         <v>2.9</v>
       </c>
       <c r="G7">
-        <v>7.9</v>
+        <v>5.32</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>7.84</v>
@@ -664,6 +754,24 @@
       </c>
       <c r="L7">
         <v>4.09</v>
+      </c>
+      <c r="M7">
+        <v>6.42</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>6.42</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <v>6.42</v>
+      </c>
+      <c r="T7">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -686,10 +794,10 @@
         <v>5</v>
       </c>
       <c r="G8">
-        <v>15.91</v>
+        <v>7.9</v>
       </c>
       <c r="H8">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="I8">
         <v>15.98</v>
@@ -702,6 +810,24 @@
       </c>
       <c r="L8">
         <v>5.86</v>
+      </c>
+      <c r="M8">
+        <v>7.91</v>
+      </c>
+      <c r="N8">
+        <v>1.8</v>
+      </c>
+      <c r="O8">
+        <v>8.1</v>
+      </c>
+      <c r="P8">
+        <v>1.3</v>
+      </c>
+      <c r="S8">
+        <v>8</v>
+      </c>
+      <c r="T8">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -724,10 +850,10 @@
         <v>2.1</v>
       </c>
       <c r="G9">
-        <v>20.16</v>
+        <v>15.91</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="I9">
         <v>20.03</v>
@@ -740,6 +866,24 @@
       </c>
       <c r="L9">
         <v>2.38</v>
+      </c>
+      <c r="M9">
+        <v>14.51</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>14.65</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>14.5</v>
+      </c>
+      <c r="T9">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -762,10 +906,10 @@
         <v>1.7</v>
       </c>
       <c r="G10">
-        <v>21.61</v>
+        <v>20.16</v>
       </c>
       <c r="H10">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>21.73</v>
@@ -778,6 +922,24 @@
       </c>
       <c r="L10">
         <v>1.1100000000000001</v>
+      </c>
+      <c r="M10">
+        <v>16.16</v>
+      </c>
+      <c r="N10">
+        <v>1.6</v>
+      </c>
+      <c r="O10">
+        <v>16.3</v>
+      </c>
+      <c r="P10">
+        <v>1.6</v>
+      </c>
+      <c r="S10">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -788,10 +950,10 @@
         <v>0.91</v>
       </c>
       <c r="G11">
-        <v>23.16</v>
+        <v>21.61</v>
       </c>
       <c r="H11">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="I11">
         <v>22.87</v>
@@ -805,13 +967,31 @@
       <c r="L11">
         <v>1.1499999999999999</v>
       </c>
+      <c r="M11">
+        <v>20.059999999999999</v>
+      </c>
+      <c r="N11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O11">
+        <v>20.41</v>
+      </c>
+      <c r="P11">
+        <v>1.2</v>
+      </c>
+      <c r="S11">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G12">
-        <v>26.51</v>
+        <v>23.16</v>
       </c>
       <c r="H12">
-        <v>1.1000000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="I12">
         <v>26.37</v>
@@ -824,6 +1004,32 @@
       </c>
       <c r="L12">
         <v>1.02</v>
+      </c>
+      <c r="M12">
+        <v>21.3</v>
+      </c>
+      <c r="N12">
+        <v>100</v>
+      </c>
+      <c r="O12">
+        <v>21.7</v>
+      </c>
+      <c r="P12">
+        <v>100</v>
+      </c>
+      <c r="S12">
+        <v>21.7</v>
+      </c>
+      <c r="T12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>26.51</v>
+      </c>
+      <c r="H13">
+        <v>1.1000000000000001</v>
       </c>
     </row>
   </sheetData>
